--- a/similarities/split_global/harmonic_similarity_timestamps_66.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_66.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,694 +484,730 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>isophonics_225</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>schubert-winterreise_38</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'A#:min/F', 'F:min']]</t>
+          <t>['E/3', 'A:min', 'F']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
+          <t>['A#', 'D#:min', 'B']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:03', '0:00:07.380000'), ('0:00:00.700000', '0:00:03.780000')]</t>
+          <t>('0:00:12.579000', '0:00:17.703000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:14.800000', '0:01:21.060000'), ('0:00:25.480000', '0:00:32.760000')]</t>
+          <t>('0:00:10', '0:00:23.840000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=3.0', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=0.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-225#t=12.579</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=74.8', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=25.48']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-38#t=10.0</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_53</t>
+          <t>schubert-winterreise_94</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>schubert-winterreise_130</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'E'], ['A', 'E', 'E:7', 'A']]</t>
+          <t>['A#:min', 'F:maj', 'A#:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj'], ['D:maj/A', 'A:maj', 'A:7', 'D:maj/A']]</t>
+          <t>['E:min', 'B:maj', 'E:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:40.490000', '0:00:50.260000'), ('0:00:00.522000', '0:00:07.205000')]</t>
+          <t>('0:00:15.600000', '0:00:24.080000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:01:00.040000', '0:01:10.960000'), ('0:02:18.280000', '0:02:34.200000')]</t>
+          <t>('0:01:23.200000', '0:01:31.140000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=40.49', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=0.522']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=15.6</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=60.04', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=138.28']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=83.2</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_51</t>
+          <t>jaah_85</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_45</t>
+          <t>jaah_67</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['F', 'G', 'C']]</t>
+          <t>['Eb:7', 'Ab', 'Eb:7']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['Bb', 'C:maj', 'F:maj']]</t>
+          <t>['C:7', 'F', 'C:7']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:25.687641', '0:00:32.084739')]</t>
+          <t>('0:00:21.500000', '0:00:25.580000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:03.861000', '0:01:06.732000')]</t>
+          <t>('0:00:24.120000', '0:00:27')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-51#t=25.687641']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=21.5</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=63.861']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-67#t=24.12</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
+          <t>isophonics_218</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_73</t>
+          <t>isophonics_280</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:7', 'G:7', 'C']]</t>
+          <t>['G', 'C', 'F']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:7', 'F:7', 'Bb']]</t>
+          <t>['B', 'E', 'A']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:16.810929', '0:00:24.845034')]</t>
+          <t>('0:00:05.776000', '0:00:09.009000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:22.560000', '0:00:28.150000')]</t>
+          <t>('0:00:31.172811', '0:00:46.428321')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-35#t=16.810929']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-218#t=5.776</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=22.56']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-280#t=31.172811</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>isophonics_46</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_182</t>
+          <t>isophonics_248</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>['G', 'A', 'D']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G', 'C/5', 'G']]</t>
+          <t>['E/5', 'F#/4', 'B']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:57.480000', '0:01:04.580000')]</t>
+          <t>('0:00:14.711383', '0:00:18.983854')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:59.182426', '0:01:04.464965')]</t>
+          <t>('0:02:06.195000', '0:02:11.396000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=57.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-46#t=14.711383</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-182#t=59.182426']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-248#t=126.195</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_136</t>
+          <t>isophonics_159</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_78</t>
+          <t>schubert-winterreise_14</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['A', 'E/4', 'D/5', 'A', 'D', 'A', 'E/4', 'D/5', 'A', 'D']]</t>
+          <t>['A', 'D', 'A/3']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'D', 'A', 'D', 'A', 'E', 'D', 'A', 'D']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:30.470000', '0:00:45.478000')]</t>
+          <t>('0:00:13.527000', '0:00:17.058000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:34.488367', '0:01:49.349138')]</t>
+          <t>('0:01:23.340000', '0:01:27.640000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-136#t=30.47']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=13.527</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-78#t=94.488367']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=83.34</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_21</t>
+          <t>isophonics_223</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
+          <t>jaah_30</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['F#:maj', 'C#:7/F', 'F#:maj', 'C#:7/F', 'F#:maj']]</t>
+          <t>['A', 'E', 'A']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#']]</t>
+          <t>['Bb', 'F', 'Bb']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:38.580000', '0:00:45.980000')]</t>
+          <t>('0:00:00.440395', '0:00:07.142059')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:41.080000', '0:00:45.380000')]</t>
+          <t>('0:00:00.460000', '0:00:05.060000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=38.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-223#t=0.440395</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=41.08']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=0.46</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
+          <t>schubert-winterreise_46</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_251</t>
+          <t>schubert-winterreise_156</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['F#:min', 'C#:7', 'F#:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:02.480000', '0:01:04.920000')]</t>
+          <t>('0:00:21.140000', '0:00:27.920000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:07.525011', '0:00:12.935260')]</t>
+          <t>('0:00:03.320000', '0:00:08.680000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=62.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-46#t=21.14</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-251#t=7.525011']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=3.32</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_242</t>
+          <t>schubert-winterreise_23</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
+          <t>schubert-winterreise_197</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A:maj6']]</t>
+          <t>['G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['Db', 'Ab', 'Db:maj6/2']]</t>
+          <t>['F#:maj/A#', 'C#:7', 'F#:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:04.511043', '0:00:10.664331')]</t>
+          <t>('0:00:07.560000', '0:00:16.360000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:03.858000', '0:01:20.628000')]</t>
+          <t>('0:00:17.480000', '0:00:19.720000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-242#t=4.511043']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-23#t=7.56</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=63.858']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=17.48</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_54</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
+          <t>isophonics_198</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb']]</t>
+          <t>['D#:min', 'A#:maj', 'D#:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>['D:min', 'A', 'D:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:22.370000', '0:00:47.630000')]</t>
+          <t>('0:00:00.780000', '0:00:05.980000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:19.780000', '0:00:29.500000')]</t>
+          <t>('0:00:18.965464', '0:00:23.342426')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-54#t=22.37']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=0.78</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-147#t=19.78']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-198#t=18.965464</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_98</t>
+          <t>isophonics_152</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_41</t>
+          <t>isophonics_79</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['A/3', 'E/5', 'A/3']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min']]</t>
+          <t>['E', 'B', 'E']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:43.880000', '0:00:48.020000')]</t>
+          <t>('0:00:14.168000', '0:00:18.573000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:11.160000', '0:00:16.300000')]</t>
+          <t>('0:00:04.103323', '0:00:13.890534')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-98#t=43.88']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=14.168</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-41#t=11.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-79#t=4.103323</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_124</t>
+          <t>schubert-winterreise_195</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
+          <t>isophonics_269</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['F', 'Bb', 'F']]</t>
+          <t>['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['A:min', 'E', 'A:min', 'E', 'A:min', 'E', 'A:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:15.124263', '0:00:20.058503')]</t>
+          <t>('0:00:44.160000', '0:00:58.080000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:58.400000', '0:01:00.680000')]</t>
+          <t>('0:00:38.841000', '0:00:47.891000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-124#t=15.124263']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-195#t=44.16</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=58.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-269#t=38.841</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_179</t>
+          <t>jaah_31</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>isophonics_45</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['D:min7', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C:7', 'F:min']]</t>
+          <t>['G:min7', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:02:11.200000', '0:02:16.340000')]</t>
+          <t>('0:00:04.240000', '0:00:11.440000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:43.680000', '0:00:45.800000')]</t>
+          <t>('0:00:39.976000', '0:00:44.640000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=131.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-31#t=4.24</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=43.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=39.976</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_258</t>
+          <t>jaah_19</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>jaah_64</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['E:min', 'A:min', 'E:min']]</t>
+          <t>['C:min7', 'F:7', 'Bb:min7', 'Eb:7', 'Ab:maj6']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min']]</t>
+          <t>['E:min7', 'A:7', 'D:min7', 'G:7', 'C:maj6']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:00.506000', '0:00:08.175000')]</t>
+          <t>('0:00:32.210000', '0:00:35.480000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:10.160000', '0:00:19.880000')]</t>
+          <t>('0:00:18.600000', '0:00:24.030000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-258#t=0.506']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-19#t=32.21</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-15#t=10.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-64#t=18.6</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_124</t>
+          <t>schubert-winterreise_164</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_147</t>
+          <t>schubert-winterreise_49</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['F', 'Bb', 'F', 'C']]</t>
+          <t>['A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'B']]</t>
+          <t>['A:min', 'E:7/B', 'A:min/C']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:15.124263', '0:00:21.811609')]</t>
+          <t>('0:00:19.820000', '0:00:29.100000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:15.216000', '0:00:34.866000')]</t>
+          <t>('0:00:00.340000', '0:00:02.340000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-124#t=15.124263']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-164#t=19.82</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=15.216']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=0.34</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
